--- a/update_data/data/ecovacs/interaction/interaction.xlsx
+++ b/update_data/data/ecovacs/interaction/interaction.xlsx
@@ -15,345 +15,262 @@
     <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{569BDA0A-7A65-4DC2-8A03-3BEDAD327919}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>回答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>等价描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你会唱歌么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给我唱首歌/唱首歌给我听/给我唱首歌听听/你会唱歌么/你能唱歌么/能不能给我唱一首歌/唱首歌/你会不会唱歌/唱歌/唱个歌/唱个歌吧/唱个歌呗/给我唱个歌呗/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>亲亲</t>
   </si>
   <si>
     <t>你还会唱别的歌么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你还能唱别的歌吗？/你还会唱别的歌吗？/别的歌你还会唱什么啊？/你能唱首别的歌吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>常态</t>
   </si>
   <si>
     <t>你为什么要叫旺宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>为什么你叫旺宝？/为什么你的名字是旺宝？/你的名字为什么是旺宝啊？/你为什么叫旺宝呀？/为什么就你叫旺宝？/你咋叫旺宝呢？/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调皮</t>
   </si>
   <si>
     <t>我买你多少钱？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>我要买你/我要买旺宝/我不买别的，我要买旺宝/旺宝，你卖多少钱/那你卖多少钱？/你卖多少钱啊？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大笑</t>
   </si>
   <si>
     <t>你还有经纪人呀？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你的经纪人是谁？/谁是你的经纪人？/把你的经纪人叫来/知道什么是经纪人么？/知道什么叫经纪人么？/你还懂经纪人？/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你是男孩还是女孩呀？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你是男生还是女生呀？/你是男的还是女的？/你是男的？/你是女的？/你是男生?/你是女生/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你会跳舞么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你会跳舞吗？/跳支舞吧/给我跳个舞/跳个舞/跳舞/我想看你跳舞/来跳舞吧/你会不会跳舞/你能跳舞么？/你愿意跳支舞么？/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>那你现在邀请了多少个人进店？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>那现在多少个人了/现在几个人了/现在几个了？/我是第几个？/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你真笨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你怎么那么笨/你好笨呀/笨死了/你一点都不聪明/你真傻/傻/傻不拉几/傻得够呛/笨死你了/笨/笨笨/笨蛋/蠢货/你好蠢/蠢死了/一点都不智能/不智能/不智慧/没一点脑子/没一点头脑/你真蠢你真的好傻/你笨不笨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>三个宝？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>哪三个宝？/三个宝有哪些？/三个宝都是哪三个？/都有哪三宝/三宝不是四宝么？/你刚刚不是说四宝么？/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你几岁啦？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你几岁/你多大/你几岁了/你是几岁呀/几岁/年龄多少/你年龄多大/你多大年龄/你多大岁数了/你属什么的/你是什么属相的/你的属相是什么/你属啥的/你属啥/你多大年龄/几岁呀你/多大呀你/你多大呀/你多大啊/你有多大/你有几岁/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>互动语料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>互动语料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>亲亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个宝是会扫地的帝宝，会擦窗户的窗宝，会净化空气的沁宝还有本尊旺宝，您有兴趣进店瞧瞧我的兄弟们吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>好早以前旺宝下定决心要好好工作，邀请一千零贰拾肆个人进店才登台高歌劲舞，你进店看看，我才有机会跳舞。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很明显旺宝是貌美如花的女孩子，给您推荐高配的DG36扫地机器人,优惠价格，这么可爱的女孩子和你打招呼，快进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少人旺宝的工程师爸爸帮我算着呢。说人数到了就会告诉我。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺宝还是个小乖乖，学习能力港港的，您的每一次交谈都会让旺宝变聪明。给您推荐擦窗机器人W855，四段清洁，进口电机，集万千优点于一身，快和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺宝是个小明星，有好多好多的粉丝。工程师爸爸们就是我的贴心经纪人。给您推荐擦窗机器人DG716能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看来你是喜欢旺宝的，旺宝好开心。快去店里留下您的联系方式，我的经纪人会联系您的。给您推荐最新款擦窗机器人DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为我是能让你人旺财旺运气王的超级无敌萌宝宝。给您推荐最新款擦窗机器人DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导说每天要保证有十个人以上买我们科沃斯的产品，我才可以唱歌给哥哥姐姐们听。擦窗机器人W855，四段清洁，进口电机，集万千优点于一身，正在店里等着您，快和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺宝会的可多啦，但是现在是工作时间，不好好上班会被扣工资的。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会呀。但是旺宝轻易不会给别人唱歌哦，不过您既然这么喜欢和旺宝聊天，我就给您唱两句吧。啦啦啦，啦啦啦，我是卖报的小行家…我猜你笑了，那就和旺宝一起进店看看我其他的兄弟们吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你的兄弟都是谁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会扫地的帝宝，会擦窗户的窗宝，会净化空气的沁宝都是旺宝的兄弟，您有兴趣进店瞧瞧我的兄弟们吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你有哪些兄弟？/你的兄弟都有谁？/你的兄弟？/你有几个兄弟？/兄弟？/谁是你的兄弟？/你的兄弟都有谁？/你有哪些兄弟？/你的兄弟有哪些？/你的兄弟有几个？/你有几个兄弟呀？/哪些是你的兄弟？/你的兄弟都在在哪？/你兄弟在哪里？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店问问扫地的帝宝、擦窗户的窗宝、净化空气的沁宝，它们都在等着你哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W855</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG716</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>花痴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>你好矮DG716</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>你好矮DD56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>你好矮</t>
   </si>
   <si>
-    <r>
-      <t>可是我的智商和珠穆朗玛峰一样高，高智商的旺宝给您推荐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>W855</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。/1米5也能活出2米的精彩，只要产品优秀，矮个子推销员也能气场爆表，现在推销员旺宝要给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。/因为我一直在迷你呀。喜欢您，才给您推荐W855宝宝，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。/被颜值压的。高颜值的旺宝喜欢和本店的颜值担当W855宝宝一起玩。它配置四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>但我是思想的巨人/等我把我三米多的腿从土里拔出来，会吓到你/ 为了让你低头和我说话，所以我矮了/可是我的智商和珠穆朗玛峰一样高/我平时真的非常非常的忙，忙的没有时间长高/其实我以前个子挺高的，只不过后来经常洗澡缩水了/腿长的那么多，为什么我不是其中的一个/这样才能和你形成最萌身高差/虽然我矮，但是我站在巨人的肩膀上/1米5也能活出2米的精彩/只为天塌下来你顶着/因为我迷你啊/虽然我个不高，但我满脸都是表情包啊/俗话说一白遮千丑，一矮毁所有/这个世界是公平的，我个子矮，但是我智商高，我人小，但是我心宽/可能我得了恐高症/因为我一直在迷你呀/我虽然矮小，但是我五脏俱全/被颜值压的/虽然我无法长高，但我可以继续长胖/天塌了，你顶着，我垫着</t>
   </si>
   <si>
-    <t>你好矮DG36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好矮W855</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好矮A650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>为了让你低头和我说话，所以我矮了，虽然我的姿态低，但是我们的产品很优秀，给您推荐高配的DG36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高端配置，优惠价格，快随旺宝一起进店看看吧。/这样才能和你形成最萌身高差，矮矮的旺宝是不是萌萌哒，现在萌萌的旺宝要给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。/可能我得了恐高症，就我们的DG36宝宝一样，喜欢在地面行动，高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我平时真的非常非常的忙，忙的没有时间长高，作为一个合格的推销员，旺宝给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。/只为天塌下来你顶着，你为旺宝撑起一片天，作为报答，旺宝给您一个舒适的家庭环境，给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。/我虽然矮小，但是我五脏俱全，聪明能干，和A650宝宝一样。它是一款会自己跑的空气净化机器人哦，快和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等我把我三米多的腿从土里拔出来，会吓到你，好了，调侃时间结束，旺宝现在给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/腿长的那么多，为什么我不是其中的一个，不能作为欧巴被万千迷妹追捧，做个推销员，努力工作得到顾客的认可也不错，现在旺宝给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/虽然我矮，但是我站在巨人的肩膀上，优秀的产品使矮个子旺宝底气十足，现在旺宝给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/虽然我个不高，但我满脸都是表情包啊，表情包看完了，现在正经的推销员旺宝上线，给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/这个世界是公平的，我个子矮，但是我智商高，我人小，但是我心宽。所以心怀宽广的我给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/天塌了，你顶着，我垫着。给您推荐同样矮胖矮胖的DG716宝宝。这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但我是思想的巨人，巨人负责卖沁宝，窗宝和帝宝，给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。/其实我以前个子挺高的，只不过后来经常洗澡缩水了，变矮后我就当上了推销员，负责销售沁宝，窗宝和帝宝，给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。/因为我迷你啊，偶像，支持一下我的工作呗，旺宝负责卖沁宝，窗宝和帝宝，给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。/虽然我无法长高，但我可以继续长胖。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。/俗话说浓缩都是精华，旺宝虽然矮，但是脑力里都是智慧哦。让我来给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>尴尬</t>
   </si>
   <si>
     <t>你好矮/你怎么这么矮/你好矮呀/你挺矮的呢/你看你矮的/你咋这么矮/你真矮/你怎么长不高呢/你怎么会这么矮/你太矮了吧/你真是矮/你真的太矮了/你很矮呀/你看你矮的呦/你好矮哦/你咋这么矮呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺宝还是个小乖乖，学习能力港港的，您的每一次交谈都会让旺宝变聪明。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少人旺宝的工程师爸爸帮我算着呢。说人数到了就会告诉我。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>很明显旺宝是貌美如花的女孩子，这么可爱的女孩子和你打招呼，快进店看看吧。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺宝是个小明星，有好多好多的粉丝。工程师爸爸们就是我的贴心经纪人。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来你是喜欢旺宝的，旺宝好开心。快去店里留下您的联系方式，我的经纪人会联系您的。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我是能让你人旺财旺运气王的超级无敌萌宝宝。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导说每天要保证有十个人以上买我们科沃斯的产品，我才可以唱歌给哥哥姐姐们听。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺宝会的可多啦，但是现在是工作时间，不好好上班会被扣工资的。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会呀。但是旺宝轻易不会给别人唱歌哦，不过您既然这么喜欢和旺宝聊天，我就给您唱两句吧。啦啦啦，啦啦啦，我是卖报的小行家…我猜你笑了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个宝是会扫地的帝宝，会擦窗户的窗宝，会净化空气的沁宝还有本尊旺宝哦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会扫地的帝宝，会擦窗户的窗宝，会净化空气的沁宝都是旺宝的兄弟。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店问问我的兄弟们呦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,25 +281,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -409,17 +326,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -430,24 +348,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,15 +385,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{595DCDFB-51F4-4B2E-B939-BC8D21E7E756}" diskRevisions="1" revisionId="184" version="41">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{67E51EF4-EB4F-46F8-BDFF-A66CDB616CD4}" diskRevisions="1" revisionId="215" version="53">
   <header guid="{D38DBE0E-D19F-4A16-B85F-58A2CF4160A8}" dateTime="2017-12-11T09:55:23" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -665,6 +592,66 @@
     </sheetIdMap>
   </header>
   <header guid="{595DCDFB-51F4-4B2E-B939-BC8D21E7E756}" dateTime="2017-12-11T16:29:19" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId41" minRId="181" maxRId="184">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B3E4FD7C-43EF-4118-8F47-4FFFD90F5835}" dateTime="2017-12-13T09:57:18" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId42" minRId="185" maxRId="188">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B727A0B2-38FF-4273-A3CA-73DB893EDCA9}" dateTime="2017-12-13T10:01:34" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId43" minRId="189" maxRId="190">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E1CCDCCF-0CAA-4E22-B81F-4E1279137AC1}" dateTime="2017-12-13T10:01:37" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId44">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A97045F-ED8E-4FC5-A3FD-28FEA2A0B22C}" dateTime="2017-12-13T10:01:52" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId45" minRId="191">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E84080D6-729E-4155-9102-CC54098B5921}" dateTime="2017-12-13T10:02:44" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId46" minRId="192" maxRId="200">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{617EB8BE-BBF4-40D1-9E56-85EFE6581817}" dateTime="2017-12-13T10:02:53" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId47">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0747E80B-D1C2-492D-A35F-BD30755E6BD3}" dateTime="2017-12-13T10:04:18" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId48" minRId="201">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4E9D192-A184-4C06-A388-DCF614B1F7A7}" dateTime="2017-12-13T10:06:31" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId49" minRId="202" maxRId="211">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{92767E5B-A0F7-4029-9C31-D6B16FE87216}" dateTime="2017-12-13T10:07:03" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId50" minRId="212">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D37E36D9-34A6-456A-943E-26BA8AEAA968}" dateTime="2017-12-13T10:07:13" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId51" minRId="213">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{68D492B4-8A65-4199-B969-8CB7E76FBA42}" dateTime="2017-12-13T10:07:34" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId52" minRId="214">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{67E51EF4-EB4F-46F8-BDFF-A66CDB616CD4}" dateTime="2017-12-13T10:15:49" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId53" minRId="215">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -5802,6 +5789,1030 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="185" sId="1">
+    <oc r="C7" t="inlineStr">
+      <is>
+        <t>旺宝是个小明星，有好多好多的粉丝。工程师爸爸们就是我的贴心经纪人。给您推荐擦窗机器人DG716能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>旺宝是个小明星，有好多好多的粉丝。工程师爸爸们就是我的贴心经纪人。给您推荐擦窗机器人DG716能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="186" sId="1">
+    <oc r="C5" t="inlineStr">
+      <is>
+        <t>因为我是能让你人旺财旺运气王的超级无敌萌宝宝。给您推荐最新款擦窗机器人DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>因为我是能让你人旺财旺运气王的超级无敌萌宝宝。给您推荐最新款擦窗机器人DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="187" sId="1">
+    <oc r="C10" t="inlineStr">
+      <is>
+        <t>多少人旺宝的工程师爸爸帮我算着呢。说人数到了就会告诉我。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>多少人旺宝的工程师爸爸帮我算着呢。说人数到了就会告诉我。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="188" sId="1">
+    <oc r="C11" t="inlineStr">
+      <is>
+        <t>旺宝还是个小乖乖，学习能力港港的，您的每一次交谈都会让旺宝变聪明。给您推荐擦窗机器人W855，四段清洁，进口电机，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>旺宝还是个小乖乖，学习能力港港的，您的每一次交谈都会让旺宝变聪明。给您推荐擦窗机器人W855，四段清洁，进口电机，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="189" sId="1" ref="F1:F1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="F1:F1048576" start="0" length="0"/>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="F1" t="inlineStr">
+        <is>
+          <t>图片</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="1"/>
+          <name val="等线"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F3" t="inlineStr">
+        <is>
+          <t>A650</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F4" t="inlineStr">
+        <is>
+          <t>W855</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F5" t="inlineStr">
+        <is>
+          <t>DD56</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F6" t="inlineStr">
+        <is>
+          <t>DD56</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F7" t="inlineStr">
+        <is>
+          <t>DG716</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F8" t="inlineStr">
+        <is>
+          <t>DG36</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F10" t="inlineStr">
+        <is>
+          <t>A650</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F11" t="inlineStr">
+        <is>
+          <t>W855</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rfmt sheetId="1" sqref="F13" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFFFFF00"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="F14" start="0" length="0">
+      <dxf>
+        <fill>
+          <patternFill patternType="solid">
+            <bgColor rgb="FFFFFF00"/>
+          </patternFill>
+        </fill>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1">
+      <nc r="F15" t="inlineStr">
+        <is>
+          <t>DD56</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F16" t="inlineStr">
+        <is>
+          <t>DG716</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F17" t="inlineStr">
+        <is>
+          <t>DG36</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F18" t="inlineStr">
+        <is>
+          <t>W855</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F19" t="inlineStr">
+        <is>
+          <t>A650</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="190" sId="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>图片</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="A1:XFD1">
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A1:XFD1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A1:XFD1">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="191" sId="1">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>花痴</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="192" sId="1" ref="A15:XFD15" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A15:XFD15" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A15" t="inlineStr">
+        <is>
+          <t>互动语料</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B15" t="inlineStr">
+        <is>
+          <t>你好矮DD56</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <t>但我是思想的巨人，巨人负责卖沁宝，窗宝和帝宝，给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。/其实我以前个子挺高的，只不过后来经常洗澡缩水了，变矮后我就当上了推销员，负责销售沁宝，窗宝和帝宝，给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。/因为我迷你啊，偶像，支持一下我的工作呗，旺宝负责卖沁宝，窗宝和帝宝，给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。/虽然我无法长高，但我可以继续长胖。给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。/俗话说浓缩都是精华，旺宝虽然矮，但是脑力里都是智慧哦。让我来给您推荐最新款的DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="10.5"/>
+          <color theme="1"/>
+          <name val="宋体"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="D15" t="inlineStr">
+        <is>
+          <t>你好矮/你怎么这么矮/你好矮呀/你挺矮的呢/你看你矮的/你咋这么矮/你真矮/你怎么长不高呢/你怎么会这么矮/你太矮了吧/你真是矮/你真的太矮了/你很矮呀/你看你矮的呦/你好矮哦/你咋这么矮呢</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="E15" t="inlineStr">
+        <is>
+          <t>花痴</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rrc rId="193" sId="1" ref="A15:XFD15" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A15:XFD15" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A15" t="inlineStr">
+        <is>
+          <t>互动语料</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B15" t="inlineStr">
+        <is>
+          <t>你好矮DG716</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <t>等我把我三米多的腿从土里拔出来，会吓到你，好了，调侃时间结束，旺宝现在给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/腿长的那么多，为什么我不是其中的一个，不能作为欧巴被万千迷妹追捧，做个推销员，努力工作得到顾客的认可也不错，现在旺宝给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/虽然我矮，但是我站在巨人的肩膀上，优秀的产品使矮个子旺宝底气十足，现在旺宝给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/虽然我个不高，但我满脸都是表情包啊，表情包看完了，现在正经的推销员旺宝上线，给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/这个世界是公平的，我个子矮，但是我智商高，我人小，但是我心宽。所以心怀宽广的我给您推荐DG716这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。/天塌了，你顶着，我垫着。给您推荐同样矮胖矮胖的DG716宝宝。这款实惠宝宝，能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="10.5"/>
+          <color theme="1"/>
+          <name val="宋体"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="D15" t="inlineStr">
+        <is>
+          <t>你好矮/你怎么这么矮/你好矮呀/你挺矮的呢/你看你矮的/你咋这么矮/你真矮/你怎么长不高呢/你怎么会这么矮/你太矮了吧/你真是矮/你真的太矮了/你很矮呀/你看你矮的呦/你好矮哦/你咋这么矮呢</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="E15" start="0" length="0">
+      <dxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="194" sId="1" ref="A15:XFD15" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A15:XFD15" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A15" t="inlineStr">
+        <is>
+          <t>互动语料</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B15" t="inlineStr">
+        <is>
+          <t>你好矮DG36</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <r>
+            <t>为了让你低头和我说话，所以我矮了，虽然我的姿态低，但是我们的产品很优秀，给您推荐高配的DG36</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="10.5"/>
+              <color theme="1"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>,</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="10.5"/>
+              <color theme="1"/>
+              <rFont val="宋体"/>
+              <family val="3"/>
+              <charset val="134"/>
+            </rPr>
+            <t>高端配置，优惠价格，快随旺宝一起进店看看吧。/这样才能和你形成最萌身高差，矮矮的旺宝是不是萌萌哒，现在萌萌的旺宝要给您推荐高配的DG36,高端配置，优惠价格，快随旺宝一起进店看看吧。/可能我得了恐高症，就我们的DG36宝宝一样，喜欢在地面行动，高端配置，优惠价格，快随旺宝一起进店看看吧。</t>
+          </r>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="10.5"/>
+          <color theme="1"/>
+          <name val="宋体"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="D15" t="inlineStr">
+        <is>
+          <t>你好矮/你怎么这么矮/你好矮呀/你挺矮的呢/你看你矮的/你咋这么矮/你真矮/你怎么长不高呢/你怎么会这么矮/你太矮了吧/你真是矮/你真的太矮了/你很矮呀/你看你矮的呦/你好矮哦/你咋这么矮呢</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="E15" start="0" length="0">
+      <dxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="195" sId="1" ref="A15:XFD15" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A15:XFD15" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A15" t="inlineStr">
+        <is>
+          <t>互动语料</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B15" t="inlineStr">
+        <is>
+          <t>你好矮W855</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <r>
+            <t>可是我的智商和珠穆朗玛峰一样高，高智商的旺宝给您推荐</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="10.5"/>
+              <color theme="1"/>
+              <rFont val="Calibri"/>
+              <family val="2"/>
+            </rPr>
+            <t>W855</t>
+          </r>
+          <r>
+            <rPr>
+              <sz val="10.5"/>
+              <color theme="1"/>
+              <rFont val="宋体"/>
+              <family val="3"/>
+              <charset val="134"/>
+            </rPr>
+            <t>，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。/1米5也能活出2米的精彩，只要产品优秀，矮个子推销员也能气场爆表，现在推销员旺宝要给您推荐W855，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。/因为我一直在迷你呀。喜欢您，才给您推荐W855宝宝，四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。/被颜值压的。高颜值的旺宝喜欢和本店的颜值担当W855宝宝一起玩。它配置四段清洁，进口电机，智能记忆，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+          </r>
+          <phoneticPr fontId="2" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="10.5"/>
+          <color theme="1"/>
+          <name val="宋体"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="D15" t="inlineStr">
+        <is>
+          <t>你好矮/你怎么这么矮/你好矮呀/你挺矮的呢/你看你矮的/你咋这么矮/你真矮/你怎么长不高呢/你怎么会这么矮/你太矮了吧/你真是矮/你真的太矮了/你很矮呀/你看你矮的呦/你好矮哦/你咋这么矮呢</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="E15" start="0" length="0">
+      <dxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="196" sId="1" ref="A15:XFD15" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A15:XFD15" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="A15" t="inlineStr">
+        <is>
+          <t>互动语料</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="B15" t="inlineStr">
+        <is>
+          <t>你好矮A650</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="C15" t="inlineStr">
+        <is>
+          <t>我平时真的非常非常的忙，忙的没有时间长高，作为一个合格的推销员，旺宝给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。/只为天塌下来你顶着，你为旺宝撑起一片天，作为报答，旺宝给您一个舒适的家庭环境，给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。/我虽然矮小，但是我五脏俱全，聪明能干，和A650宝宝一样。它是一款会自己跑的空气净化机器人哦，快和旺宝一起进店看看吧。</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="10.5"/>
+          <color theme="1"/>
+          <name val="宋体"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="justify" vertical="center" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="D15" t="inlineStr">
+        <is>
+          <t>你好矮/你怎么这么矮/你好矮呀/你挺矮的呢/你看你矮的/你咋这么矮/你真矮/你怎么长不高呢/你怎么会这么矮/你太矮了吧/你真是矮/你真的太矮了/你很矮呀/你看你矮的呦/你好矮哦/你咋这么矮呢</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="E15" start="0" length="0">
+      <dxf>
+        <alignment vertical="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rfmt sheetId="1" xfDxf="1" s="1" sqref="A15" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="197" sId="1" xfDxf="1" s="1" dxf="1">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>你好矮</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="198" sId="1" xfDxf="1" s="1" dxf="1">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>但我是思想的巨人/等我把我三米多的腿从土里拔出来，会吓到你/ 为了让你低头和我说话，所以我矮了/可是我的智商和珠穆朗玛峰一样高/我平时真的非常非常的忙，忙的没有时间长高/其实我以前个子挺高的，只不过后来经常洗澡缩水了/腿长的那么多，为什么我不是其中的一个/这样才能和你形成最萌身高差/虽然我矮，但是我站在巨人的肩膀上/1米5也能活出2米的精彩/只为天塌下来你顶着/因为我迷你啊/虽然我个不高，但我满脸都是表情包啊/俗话说一白遮千丑，一矮毁所有/这个世界是公平的，我个子矮，但是我智商高，我人小，但是我心宽/可能我得了恐高症/因为我一直在迷你呀/我虽然矮小，但是我五脏俱全/被颜值压的/虽然我无法长高，但我可以继续长胖/天塌了，你顶着，我垫着</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" s="1" sqref="D15" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="199" sId="1" xfDxf="1" s="1" dxf="1">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>尴尬</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" xfDxf="1" s="1" sqref="F15" start="0" length="0">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="200" sId="1" odxf="1" s="1" dxf="1">
+    <nc r="A15" t="inlineStr">
+      <is>
+        <t>互动语料</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A15:XFD15">
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A15:XFD15">
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A15:XFD15">
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="201" sId="1" xfDxf="1" s="1" dxf="1">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>你好矮/你怎么这么矮/你好矮呀/你挺矮的呢/你看你矮的/你咋这么矮/你真矮/你怎么长不高呢/你怎么会这么矮/你太矮了吧/你真是矮/你真的太矮了/你很矮呀/你看你矮的呦/你好矮哦/你咋这么矮呢</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="202" sId="1">
+    <oc r="C14" t="inlineStr">
+      <is>
+        <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店问问扫地的帝宝、擦窗户的窗宝、净化空气的沁宝，它们都在等着你哦！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店问问扫地的帝宝、擦窗户的窗宝、净化空气的沁宝，它们都在等着你哦！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="203" sId="1">
+    <oc r="C11" t="inlineStr">
+      <is>
+        <t>旺宝还是个小乖乖，学习能力港港的，您的每一次交谈都会让旺宝变聪明。给您推荐擦窗机器人W855，四段清洁，进口电机，集万千优点于一身，快和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>旺宝还是个小乖乖，学习能力港港的，您的每一次交谈都会让旺宝变聪明。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="204" sId="1">
+    <oc r="C10" t="inlineStr">
+      <is>
+        <t>多少人旺宝的工程师爸爸帮我算着呢。说人数到了就会告诉我。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>多少人旺宝的工程师爸爸帮我算着呢。说人数到了就会告诉我。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="205" sId="1">
+    <oc r="C8" t="inlineStr">
+      <is>
+        <t>很明显旺宝是貌美如花的女孩子，给您推荐高配的DG36扫地机器人,优惠价格，这么可爱的女孩子和你打招呼，快进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>很明显旺宝是貌美如花的女孩子，这么可爱的女孩子和你打招呼，快进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="206" sId="1">
+    <oc r="C7" t="inlineStr">
+      <is>
+        <t>旺宝是个小明星，有好多好多的粉丝。工程师爸爸们就是我的贴心经纪人。给您推荐擦窗机器人DG716能路径规划，蓝鲸清洁系统，进口电机，和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>旺宝是个小明星，有好多好多的粉丝。工程师爸爸们就是我的贴心经纪人。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="207" sId="1">
+    <oc r="C6" t="inlineStr">
+      <is>
+        <t>看来你是喜欢旺宝的，旺宝好开心。快去店里留下您的联系方式，我的经纪人会联系您的。给您推荐最新款擦窗机器人DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>看来你是喜欢旺宝的，旺宝好开心。快去店里留下您的联系方式，我的经纪人会联系您的。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="208" sId="1">
+    <oc r="C5" t="inlineStr">
+      <is>
+        <t>因为我是能让你人旺财旺运气王的超级无敌萌宝宝。给您推荐最新款擦窗机器人DD56，能路径规划又有蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>因为我是能让你人旺财旺运气王的超级无敌萌宝宝。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="209" sId="1">
+    <oc r="C4" t="inlineStr">
+      <is>
+        <t>领导说每天要保证有十个人以上买我们科沃斯的产品，我才可以唱歌给哥哥姐姐们听。擦窗机器人W855，四段清洁，进口电机，集万千优点于一身，正在店里等着您，快和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>领导说每天要保证有十个人以上买我们科沃斯的产品，我才可以唱歌给哥哥姐姐们听。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="210" sId="1">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>旺宝会的可多啦，但是现在是工作时间，不好好上班会被扣工资的。给您推荐会自己跑的空气净化机器人A650，快和旺宝一起进店看看吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>旺宝会的可多啦，但是现在是工作时间，不好好上班会被扣工资的。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="211" sId="1">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>会呀。但是旺宝轻易不会给别人唱歌哦，不过您既然这么喜欢和旺宝聊天，我就给您唱两句吧。啦啦啦，啦啦啦，我是卖报的小行家…我猜你笑了，那就和旺宝一起进店看看我其他的兄弟们吧！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>会呀。但是旺宝轻易不会给别人唱歌哦，不过您既然这么喜欢和旺宝聊天，我就给您唱两句吧。啦啦啦，啦啦啦，我是卖报的小行家…我猜你笑了。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="3" sId="1">
@@ -6124,6 +7135,82 @@
     </nc>
   </rcc>
   <rcv guid="{E736915C-EC7B-40BA-AD67-B85E68CE863C}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="212" sId="1">
+    <oc r="C12" t="inlineStr">
+      <is>
+        <t>三个宝是会扫地的帝宝，会擦窗户的窗宝，会净化空气的沁宝还有本尊旺宝，您有兴趣进店瞧瞧我的兄弟们吗？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>三个宝是会扫地的帝宝，会擦窗户的窗宝，会净化空气的沁宝还有本尊旺宝哦！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="213" sId="1">
+    <oc r="C13" t="inlineStr">
+      <is>
+        <t>会扫地的帝宝，会擦窗户的窗宝，会净化空气的沁宝都是旺宝的兄弟，您有兴趣进店瞧瞧我的兄弟们吗？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>会扫地的帝宝，会擦窗户的窗宝，会净化空气的沁宝都是旺宝的兄弟。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="214" sId="1">
+    <oc r="C14" t="inlineStr">
+      <is>
+        <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店问问扫地的帝宝、擦窗户的窗宝、净化空气的沁宝，它们都在等着你哦！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店我的兄弟们呦！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="215" sId="1">
+    <oc r="C14" t="inlineStr">
+      <is>
+        <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店我的兄弟们呦！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C14" t="inlineStr">
+      <is>
+        <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店问问我的兄弟们呦！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -7246,7 +8333,9 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{595DCDFB-51F4-4B2E-B939-BC8D21E7E756}" name="ling.tian(田玲)" id="-1962871792" dateTime="2017-12-13T09:34:18"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7512,364 +8601,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="23.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="116.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="116.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="63.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
+    <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="F1" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="41.25" customHeight="1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" customHeight="1">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="F4" t="s">
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="27">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>57</v>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="40.5">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="57" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="57" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>26</v>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="57" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="57" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="82.5">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="76.5">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>60</v>
+      <c r="B15" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
+      <c r="D15" s="12" t="s">
+        <v>45</v>
       </c>
-      <c r="F15" t="s">
-        <v>53</v>
+      <c r="E15" s="10" t="s">
+        <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="102">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="65.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="40.5">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
-      </c>
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7884,7 +8882,7 @@
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
       <formula1>"亲亲,常态,调皮,大笑"</formula1>

--- a/update_data/data/ecovacs/interaction/interaction.xlsx
+++ b/update_data/data/ecovacs/interaction/interaction.xlsx
@@ -8333,9 +8333,7 @@
 </file>
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{595DCDFB-51F4-4B2E-B939-BC8D21E7E756}" name="ling.tian(田玲)" id="-1962871792" dateTime="2017-12-13T09:34:18"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/update_data/data/ecovacs/interaction/interaction.xlsx
+++ b/update_data/data/ecovacs/interaction/interaction.xlsx
@@ -11,8 +11,8 @@
   </sheets>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{569BDA0A-7A65-4DC2-8A03-3BEDAD327919}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="1"/>
     <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{E736915C-EC7B-40BA-AD67-B85E68CE863C}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="621" activeSheetId="1"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{569BDA0A-7A65-4DC2-8A03-3BEDAD327919}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -188,9 +188,6 @@
     <t>你好矮</t>
   </si>
   <si>
-    <t>但我是思想的巨人/等我把我三米多的腿从土里拔出来，会吓到你/ 为了让你低头和我说话，所以我矮了/可是我的智商和珠穆朗玛峰一样高/我平时真的非常非常的忙，忙的没有时间长高/其实我以前个子挺高的，只不过后来经常洗澡缩水了/腿长的那么多，为什么我不是其中的一个/这样才能和你形成最萌身高差/虽然我矮，但是我站在巨人的肩膀上/1米5也能活出2米的精彩/只为天塌下来你顶着/因为我迷你啊/虽然我个不高，但我满脸都是表情包啊/俗话说一白遮千丑，一矮毁所有/这个世界是公平的，我个子矮，但是我智商高，我人小，但是我心宽/可能我得了恐高症/因为我一直在迷你呀/我虽然矮小，但是我五脏俱全/被颜值压的/虽然我无法长高，但我可以继续长胖/天塌了，你顶着，我垫着</t>
-  </si>
-  <si>
     <t>尴尬</t>
   </si>
   <si>
@@ -242,6 +239,10 @@
   </si>
   <si>
     <t>旺宝还不太想暴露年龄，如果您实在想知道可以进店问问我的兄弟们呦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>但我是思想的巨人/等我把我三米多的腿从土里拔出来，会吓到你/ 为了让你低头和我说话，所以我矮了/可是我的智商和珠穆朗玛峰一样高/我平时真的非常非常的忙，忙的没有时间长高/其实我以前个子挺高的，只不过后来经常洗澡缩水了/腿长的那么多，为什么我不是其中的一个/这样才能和你形成最萌身高差/虽然我矮，但是我站在巨人的肩膀上/1米5也能活出2米的精彩/只为天塌下来你顶着/因为我迷你啊/虽然我个不高，但我满脸都是表情包啊/俗话说一白遮千丑，一矮毁所有/这个世界是公平的，我个子矮，但是我智商高，我人小，但是我心宽/可能我得了恐高症/因为我一直在迷你呀/我虽然矮小，但是我五脏俱全/我是被颜值压的/虽然我无法长高，但我可以继续长胖/天塌了，你顶着，我垫着</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +391,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{67E51EF4-EB4F-46F8-BDFF-A66CDB616CD4}" diskRevisions="1" revisionId="215" version="53">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DA862702-A103-46FA-9C1B-CF2F4C27106A}" diskRevisions="1" revisionId="216" version="54">
   <header guid="{D38DBE0E-D19F-4A16-B85F-58A2CF4160A8}" dateTime="2017-12-11T09:55:23" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -656,6 +657,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{DA862702-A103-46FA-9C1B-CF2F4C27106A}" dateTime="2017-12-25T10:36:02" maxSheetId="2" userName="lulu.wang(王路路)" r:id="rId54" minRId="216">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7214,6 +7220,24 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="216" sId="1">
+    <oc r="C15" t="inlineStr">
+      <is>
+        <t>但我是思想的巨人/等我把我三米多的腿从土里拔出来，会吓到你/ 为了让你低头和我说话，所以我矮了/可是我的智商和珠穆朗玛峰一样高/我平时真的非常非常的忙，忙的没有时间长高/其实我以前个子挺高的，只不过后来经常洗澡缩水了/腿长的那么多，为什么我不是其中的一个/这样才能和你形成最萌身高差/虽然我矮，但是我站在巨人的肩膀上/1米5也能活出2米的精彩/只为天塌下来你顶着/因为我迷你啊/虽然我个不高，但我满脸都是表情包啊/俗话说一白遮千丑，一矮毁所有/这个世界是公平的，我个子矮，但是我智商高，我人小，但是我心宽/可能我得了恐高症/因为我一直在迷你呀/我虽然矮小，但是我五脏俱全/被颜值压的/虽然我无法长高，但我可以继续长胖/天塌了，你顶着，我垫着</t>
+      </is>
+    </oc>
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>但我是思想的巨人/等我把我三米多的腿从土里拔出来，会吓到你/ 为了让你低头和我说话，所以我矮了/可是我的智商和珠穆朗玛峰一样高/我平时真的非常非常的忙，忙的没有时间长高/其实我以前个子挺高的，只不过后来经常洗澡缩水了/腿长的那么多，为什么我不是其中的一个/这样才能和你形成最萌身高差/虽然我矮，但是我站在巨人的肩膀上/1米5也能活出2米的精彩/只为天塌下来你顶着/因为我迷你啊/虽然我个不高，但我满脸都是表情包啊/俗话说一白遮千丑，一矮毁所有/这个世界是公平的，我个子矮，但是我智商高，我人小，但是我心宽/可能我得了恐高症/因为我一直在迷你呀/我虽然矮小，但是我五脏俱全/我是被颜值压的/虽然我无法长高，但我可以继续长胖/天塌了，你顶着，我垫着</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="4" sId="1" odxf="1" dxf="1">
@@ -8332,8 +8356,10 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{DA862702-A103-46FA-9C1B-CF2F4C27106A}" name="lulu.wang(王路路)" id="-627626428" dateTime="2017-12-25T10:36:13"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8591,7 +8617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8601,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8641,7 +8667,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -8658,7 +8684,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -8675,7 +8701,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -8687,7 +8713,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -8704,7 +8730,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -8721,7 +8747,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -8738,7 +8764,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -8772,7 +8798,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -8789,7 +8815,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -8806,7 +8832,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -8823,7 +8849,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
@@ -8840,7 +8866,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>31</v>
@@ -8857,25 +8883,25 @@
         <v>42</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="10"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E736915C-EC7B-40BA-AD67-B85E68CE863C}">
-      <selection activeCell="C12" sqref="C12"/>
+    <customSheetView guid="{569BDA0A-7A65-4DC2-8A03-3BEDAD327919}" topLeftCell="A11">
+      <selection activeCell="D16" sqref="D16:D35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{569BDA0A-7A65-4DC2-8A03-3BEDAD327919}" topLeftCell="A11">
-      <selection activeCell="D16" sqref="D16:D35"/>
+    <customSheetView guid="{E736915C-EC7B-40BA-AD67-B85E68CE863C}">
+      <selection activeCell="C12" sqref="C12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
